--- a/resources/test2.xlsx
+++ b/resources/test2.xlsx
@@ -18,26 +18,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <b val="1"/>
-      <color rgb="001bb638"/>
-      <sz val="12"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="Consoras"/>
-      <i val="1"/>
-      <color rgb="00ff0000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,14 +47,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -433,111 +414,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -548,81 +432,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>